--- a/misc/tables.xlsx
+++ b/misc/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishimoto/Documents/github/b_tree_plus_alpha/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAFB35E-1BA2-CE47-9CA0-406517850ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA01A23-8A33-754E-9BD0-7AA01925BDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49440" yWindow="8980" windowWidth="28300" windowHeight="16900" activeTab="4" xr2:uid="{543DC74A-6510-E544-B614-BB7FAB1B2E7F}"/>
+    <workbookView xWindow="49440" yWindow="8980" windowWidth="28300" windowHeight="16900" activeTab="3" xr2:uid="{543DC74A-6510-E544-B614-BB7FAB1B2E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="SPSI" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="62">
   <si>
     <t>Memory</t>
     <phoneticPr fontId="1"/>
@@ -279,6 +279,14 @@
   </si>
   <si>
     <t>Move the p-th value in S to the q-th value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O(log σ log n) time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>amortized O(log σ log n) time</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -325,15 +333,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1050,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAFE5E7-1F4A-684A-A777-8403631E9818}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
@@ -1185,7 +1190,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -1197,18 +1202,6 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1221,9 +1214,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23767C97-B8F2-F94C-B43F-EEB1D4F33988}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
@@ -1258,95 +1251,87 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1356,9 +1341,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE671FA-BEB2-1A42-8D84-122ED5262F19}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1393,7 +1378,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -1407,7 +1392,6 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>52</v>
       </c>
@@ -1419,7 +1403,6 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -1431,7 +1414,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -1445,7 +1428,6 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>57</v>
       </c>
@@ -1455,9 +1437,6 @@
       <c r="D7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
